--- a/ehbasic.neo6502/NEO6502-VDU_SPRITE_SND definition.xlsx
+++ b/ehbasic.neo6502/NEO6502-VDU_SPRITE_SND definition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Rien\pico\ehbasic.neo6502\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7611710-FAC8-46F2-A5DC-FA739584135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C78E0D-8A34-4751-A691-588BACF76071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="1245" windowWidth="21570" windowHeight="13950" xr2:uid="{C8D2DE3F-B61E-46F5-BCD7-6CB63B675EF5}"/>
+    <workbookView xWindow="1875" yWindow="3345" windowWidth="18765" windowHeight="12135" activeTab="2" xr2:uid="{C8D2DE3F-B61E-46F5-BCD7-6CB63B675EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="240">
   <si>
     <t>Command</t>
   </si>
@@ -530,9 +530,6 @@
     <t>VDU_BUFFER</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>1 cpp</t>
   </si>
   <si>
@@ -738,6 +735,30 @@
   </si>
   <si>
     <t>Mixed case commands are supported</t>
+  </si>
+  <si>
+    <t>TILE</t>
+  </si>
+  <si>
+    <t>M=0 :: normal, M=1 :: tile positions 40x30 in 8x8</t>
+  </si>
+  <si>
+    <t>TDIM</t>
+  </si>
+  <si>
+    <t>TBI</t>
+  </si>
+  <si>
+    <t>always 8 bytes</t>
+  </si>
+  <si>
+    <t>256 bytes</t>
+  </si>
+  <si>
+    <t>VDU_TBUFFER</t>
+  </si>
+  <si>
+    <t>8bits</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DCA39C-1819-42FC-A3EA-90288E2877B0}">
   <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1197,7 +1218,7 @@
         <v>20230812</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1253,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1514,7 +1535,7 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1573,22 +1594,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B46F93-867B-4D73-BAE1-0228983CFEE8}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="35.5703125" customWidth="1"/>
+    <col min="12" max="12" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1629,72 +1650,72 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" t="s">
         <v>212</v>
-      </c>
-      <c r="L3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="L4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1711,21 +1732,21 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -1737,19 +1758,22 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" t="s">
         <v>166</v>
       </c>
-      <c r="G6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H6" t="s">
-        <v>167</v>
-      </c>
       <c r="I6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L6" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="M6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1766,7 +1790,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1776,6 +1800,9 @@
       <c r="C8" t="s">
         <v>34</v>
       </c>
+      <c r="M8" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1785,16 +1812,16 @@
         <v>34</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="F9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1805,67 +1832,138 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L12" t="s">
+        <v>212</v>
+      </c>
+      <c r="M12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" t="s">
-        <v>185</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
         <v>229</v>
@@ -1873,13 +1971,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" t="s">
-        <v>230</v>
+        <v>189</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,37 +1988,37 @@
         <v>190</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>192</v>
+        <v>173</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
         <v>178</v>
@@ -1931,7 +2029,7 @@
         <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
         <v>179</v>
@@ -1942,73 +2040,62 @@
         <v>166</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="D31" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>187</v>
-      </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>214</v>
+      </c>
       <c r="B36" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>215</v>
-      </c>
-      <c r="B37" t="s">
         <v>216</v>
-      </c>
-      <c r="C37" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
